--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43301,6 +43301,41 @@
         </is>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>11700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43336,6 +43336,43 @@
         <v>11700</v>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43373,6 +43373,43 @@
         </is>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43410,6 +43410,41 @@
         </is>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43445,6 +43445,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43482,6 +43482,41 @@
         </is>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43517,6 +43517,43 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43554,6 +43554,43 @@
         </is>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43591,6 +43591,43 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43628,6 +43628,43 @@
         </is>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43665,6 +43665,43 @@
         </is>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43702,6 +43702,43 @@
         </is>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43739,6 +43739,78 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43811,6 +43811,80 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43885,6 +43885,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43922,6 +43922,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43959,6 +43959,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43996,6 +43996,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44033,6 +44033,80 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44107,6 +44107,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44144,6 +44144,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1877"/>
+  <dimension ref="A1:I1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67841,6 +67841,43 @@
         </is>
       </c>
     </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1878" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1878" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1878"/>
+  <dimension ref="A1:I1879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67878,6 +67878,43 @@
         </is>
       </c>
     </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1879" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1879"/>
+  <dimension ref="A1:I1880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67915,6 +67915,43 @@
         </is>
       </c>
     </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1880" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1880"/>
+  <dimension ref="A1:I1881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67952,6 +67952,43 @@
         </is>
       </c>
     </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1881" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1881"/>
+  <dimension ref="A1:I1882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67989,6 +67989,43 @@
         </is>
       </c>
     </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1882" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1882"/>
+  <dimension ref="A1:I1883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68026,6 +68026,43 @@
         </is>
       </c>
     </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1883" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1883" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1883"/>
+  <dimension ref="A1:I1884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68063,6 +68063,43 @@
         </is>
       </c>
     </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1884" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1884" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1884"/>
+  <dimension ref="A1:I1885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68100,6 +68100,43 @@
         </is>
       </c>
     </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1885" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1885"/>
+  <dimension ref="A1:I1886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68137,6 +68137,43 @@
         </is>
       </c>
     </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1886" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7544.xlsx
+++ b/data/7544.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1886"/>
+  <dimension ref="A1:I1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68174,6 +68174,43 @@
         </is>
       </c>
     </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1887" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
